--- a/imageCreationExcel/back/darkyobi/darkyobi_12.xlsx
+++ b/imageCreationExcel/back/darkyobi/darkyobi_12.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -495,30 +495,30 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.5780631536343812</v>
+        <v>0.7244995663460079</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.9991401365995095</v>
+        <v>23.30614304568856</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.07833767197853558</v>
+        <v>0.9527920741670221</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_B_gamma0.58_contrast1.0_sharpness0.078.jpg</t>
+          <t>1_2_gamma0.72_brightness23.0_contrast0.95.jpg</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -537,30 +537,30 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.3256488153344929</v>
+        <v>0.3993391733564132</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.924400379359957</v>
+        <v>1.039906491572095</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.76953111764214</v>
+        <v>7.220542166363445</v>
       </c>
       <c r="I3" t="n">
         <v>4</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_8_sharpness0.33_brightness1.9_gamma0.77.jpg</t>
+          <t>2_9_sharpness0.4_gamma1.0_equalization7.2.jpg</t>
         </is>
       </c>
     </row>
@@ -570,39 +570,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.6752382566367249</v>
+        <v>0.05795944279635434</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.5572225264571132</v>
+        <v>21.42086841207749</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.9308744572349602</v>
+        <v>0.758947079529712</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_9_gamma0.68_sharpness0.56_contrast0.93.jpg</t>
+          <t>3_P_sharpness0.058_brightness21.0_gamma0.76.jpg</t>
         </is>
       </c>
     </row>
@@ -612,39 +612,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.084085208704237</v>
+        <v>0.9701065332991381</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.06549360228443579</v>
+        <v>0.9036990776188278</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.8861883274896432</v>
+        <v>9.627786431300926</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_T_contrast1.1_sharpness0.065_gamma0.89.jpg</t>
+          <t>4_8_gamma0.97_contrast0.9_equalization9.6.jpg</t>
         </is>
       </c>
     </row>
@@ -654,7 +654,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -663,7 +663,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.1342820454433034</v>
+        <v>0.8678907131913227</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>6.795430094542159</v>
+        <v>17.25322284248968</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -679,14 +679,14 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1.097936645190758</v>
+        <v>0.8196306593346918</v>
       </c>
       <c r="I6" t="n">
         <v>4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_C_sharpness0.13_brightness6.8_contrast1.1.jpg</t>
+          <t>5_8_sharpness0.87_brightness17.0_contrast0.82.jpg</t>
         </is>
       </c>
     </row>
@@ -696,39 +696,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.9565805510060661</v>
+        <v>0.7408407566765645</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.5569014034040334</v>
+        <v>0.9525367197136222</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10.1977914832232</v>
+        <v>12.51100836468615</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_B_contrast0.96_sharpness0.56_equalization10.0.jpg</t>
+          <t>6_T_gamma0.74_contrast0.95_brightness13.0.jpg</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -747,30 +747,30 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.8043875633112467</v>
+        <v>0.9986730042829429</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.07933232128343</v>
+        <v>0.4695209120197591</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1.830963376666462</v>
+        <v>12.62833135516391</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_1_gamma0.8_contrast1.1_brightness1.8.jpg</t>
+          <t>7_7_gamma1.0_sharpness0.47_equalization13.0.jpg</t>
         </is>
       </c>
     </row>
@@ -780,24 +780,24 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.128515515965772</v>
+        <v>1.032229902945559</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.8280396552428705</v>
+        <v>1.056061606410337</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -805,14 +805,14 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>20.93408736445829</v>
+        <v>8.53242445688365</v>
       </c>
       <c r="I9" t="n">
         <v>4</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_P_contrast1.1_sharpness0.83_equalization21.0.jpg</t>
+          <t>8_B_gamma1.0_contrast1.1_equalization8.5.jpg</t>
         </is>
       </c>
     </row>
@@ -822,39 +822,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.8685565344610292</v>
+        <v>0.7783048115991434</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>11.89752783228427</v>
+        <v>1.17653882255396</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.8741807508750415</v>
+        <v>7.249313044320623</v>
       </c>
       <c r="I10" t="n">
         <v>4</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_8_contrast0.87_brightness12.0_sharpness0.87.jpg</t>
+          <t>9_E_gamma0.78_contrast1.2_equalization7.2.jpg</t>
         </is>
       </c>
     </row>
@@ -864,7 +864,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -873,30 +873,30 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1.029242935280194</v>
+        <v>0.9950526656195462</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>13.28179376212551</v>
+        <v>1.003841357111905</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.552160510068329</v>
+        <v>0.592636806349124</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_9_contrast1.0_brightness13.0_gamma0.55.jpg</t>
+          <t>10_B_contrast1.0_gamma1.0_sharpness0.59.jpg</t>
         </is>
       </c>
     </row>
@@ -906,39 +906,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.9062766957914836</v>
+        <v>0.07131786100130033</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>8.716307121224938</v>
+        <v>0.8389083895349831</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>1.037894234641259</v>
+        <v>16.91666443319099</v>
       </c>
       <c r="I12" t="n">
         <v>4</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_C_gamma0.91_brightness8.7_contrast1.0.jpg</t>
+          <t>11_3_sharpness0.071_gamma0.84_equalization17.0.jpg</t>
         </is>
       </c>
     </row>
@@ -948,39 +948,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.4554834047307187</v>
+        <v>1.067330632413139</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.014952811044925</v>
+        <v>1.059559521943328</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.994511420708263</v>
+        <v>0.07132804092367462</v>
       </c>
       <c r="I13" t="n">
         <v>4</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_I_sharpness0.46_brightness2.0_gamma0.99.jpg</t>
+          <t>12_9_gamma1.1_contrast1.1_sharpness0.071.jpg</t>
         </is>
       </c>
     </row>
@@ -990,24 +990,24 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.6598307220528694</v>
+        <v>0.9737040034927303</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.1044116772609001</v>
+        <v>0.6008259893200012</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1015,14 +1015,14 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>15.04033435789554</v>
+        <v>22.24662200105153</v>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_E_gamma0.66_sharpness0.1_equalization15.0.jpg</t>
+          <t>13_S_contrast0.97_gamma0.6_equalization22.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1041,30 +1041,30 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.2061329115040806</v>
+        <v>0.5127521972844192</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.9578819928694613</v>
+        <v>3.77754650443029</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>19.4244240203773</v>
+        <v>0.6079212154484891</v>
       </c>
       <c r="I15" t="n">
         <v>4</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_3_sharpness0.21_gamma0.96_equalization19.0.jpg</t>
+          <t>14_1_sharpness0.51_brightness3.8_gamma0.61.jpg</t>
         </is>
       </c>
     </row>
@@ -1074,39 +1074,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.023775468891663</v>
+        <v>0.8884573029309489</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.6486043260212406</v>
+        <v>0.8759047686915838</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>21.39712862005459</v>
+        <v>14.23479068075537</v>
       </c>
       <c r="I16" t="n">
         <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_0_gamma1.0_sharpness0.65_equalization21.0.jpg</t>
+          <t>15_T_contrast0.89_gamma0.88_brightness14.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1121,34 +1121,34 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.9229916707506276</v>
+        <v>3.096694537464556</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>22.91264381497637</v>
+        <v>0.6717971451820899</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.5899400200943626</v>
+        <v>1.090960078521786</v>
       </c>
       <c r="I17" t="n">
         <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_P_contrast0.92_brightness23.0_gamma0.59.jpg</t>
+          <t>16_P_brightness3.1_gamma0.67_contrast1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -1158,16 +1158,16 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1.048843172509612</v>
+        <v>0.3615492674493637</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1175,22 +1175,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.9717635817295682</v>
+        <v>0.9173638543434334</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>11.25152076662051</v>
+        <v>0.9822474088882271</v>
       </c>
       <c r="I18" t="n">
         <v>4</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_I_contrast1.0_gamma0.97_equalization11.0.jpg</t>
+          <t>17_3_brightness0.36_gamma0.92_contrast0.98.jpg</t>
         </is>
       </c>
     </row>
@@ -1200,16 +1200,16 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1.065948405145908</v>
+        <v>1.155171875875741</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1217,22 +1217,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>27.24466244548045</v>
+        <v>17.14679824624848</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.9985098927075485</v>
+        <v>0.6000753809399179</v>
       </c>
       <c r="I19" t="n">
         <v>4</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_B_gamma1.1_brightness27.0_contrast1.0.jpg</t>
+          <t>18_S_contrast1.2_brightness17.0_gamma0.6.jpg</t>
         </is>
       </c>
     </row>
@@ -1242,39 +1242,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.5049422251788519</v>
+        <v>0.4982498823787438</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.1280442103992835</v>
+        <v>0.9077718311120117</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.9915896488437597</v>
+        <v>0.7452949440160811</v>
       </c>
       <c r="I20" t="n">
         <v>4</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_I_gamma0.5_sharpness0.13_contrast0.99.jpg</t>
+          <t>19_9_sharpness0.5_contrast0.91_gamma0.75.jpg</t>
         </is>
       </c>
     </row>
@@ -1284,39 +1284,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.104234215895381</v>
+        <v>0.6274605119391237</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.5207280710695035</v>
+        <v>0.9637486197895259</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>31.57564088141516</v>
+        <v>1.075232483754899</v>
       </c>
       <c r="I21" t="n">
         <v>4</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_T_contrast1.1_gamma0.52_equalization32.0.jpg</t>
+          <t>20_8_sharpness0.63_contrast0.96_gamma1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -1326,24 +1326,24 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1.068050589780562</v>
+        <v>0.9247446678231925</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.5222357478852266</v>
+        <v>0.7924487106843124</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1351,14 +1351,14 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>19.75120982607246</v>
+        <v>4.721495123907481</v>
       </c>
       <c r="I22" t="n">
         <v>4</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_B_contrast1.1_sharpness0.52_equalization20.0.jpg</t>
+          <t>21_T_sharpness0.92_gamma0.79_equalization4.7.jpg</t>
         </is>
       </c>
     </row>
@@ -1368,7 +1368,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1377,30 +1377,30 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1.091868917435223</v>
+        <v>0.8845178486764884</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>1.185654587177218</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="F23" t="n">
-        <v>15.71373617142994</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
       <c r="H23" t="n">
-        <v>0.8195250435497979</v>
+        <v>8.953091966782017</v>
       </c>
       <c r="I23" t="n">
         <v>4</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_1_gamma1.1_brightness16.0_sharpness0.82.jpg</t>
+          <t>22_B_gamma0.88_contrast1.2_brightness9.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1410,24 +1410,24 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>14.153023345319</v>
+        <v>0.7493505066913766</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.4784919354414299</v>
+        <v>0.9692864347148035</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1435,14 +1435,14 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>0.5962223644758531</v>
+        <v>0.8136781294417389</v>
       </c>
       <c r="I24" t="n">
         <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_0_brightness14.0_sharpness0.48_gamma0.6.jpg</t>
+          <t>23_3_sharpness0.75_contrast0.97_gamma0.81.jpg</t>
         </is>
       </c>
     </row>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1461,30 +1461,30 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.8866902314425306</v>
+        <v>0.6993028902493339</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.1646935102043</v>
+        <v>15.64211911083366</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>8.830719415446412</v>
+        <v>1.185921820443044</v>
       </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_S_sharpness0.89_contrast1.2_equalization8.8.jpg</t>
+          <t>24_E_sharpness0.7_brightness16.0_contrast1.2.jpg</t>
         </is>
       </c>
     </row>
@@ -1494,24 +1494,24 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.8685253852708333</v>
+        <v>0.8537943957635811</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.5190532925328953</v>
+        <v>0.971651564632187</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1519,14 +1519,14 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>4.809759253681865</v>
+        <v>11.04284847973923</v>
       </c>
       <c r="I26" t="n">
         <v>4</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_E_contrast0.87_gamma0.52_equalization4.8.jpg</t>
+          <t>25_9_gamma0.85_contrast0.97_equalization11.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1545,30 +1545,30 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.9285677712078502</v>
+        <v>0.9033462671995599</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.519466704115241</v>
+        <v>0.5551775440369449</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>30.75186517122884</v>
+        <v>0.5016299627326259</v>
       </c>
       <c r="I27" t="n">
         <v>4</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_1_contrast0.93_sharpness0.52_equalization31.0.jpg</t>
+          <t>26_C_contrast0.9_gamma0.56_sharpness0.5.jpg</t>
         </is>
       </c>
     </row>
@@ -1578,39 +1578,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.7535560203839085</v>
+        <v>8.026676307033547</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.091101395604118</v>
+        <v>0.701727396847483</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.1941990657682753</v>
+        <v>0.5250792310018496</v>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_3_gamma0.75_contrast1.1_sharpness0.19.jpg</t>
+          <t>27_E_brightness8.0_sharpness0.7_gamma0.53.jpg</t>
         </is>
       </c>
     </row>
@@ -1620,39 +1620,39 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.9656430562803838</v>
+        <v>0.2506752774645422</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.3404044794764824</v>
+        <v>1.084980491366168</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>1.049529976077703</v>
+        <v>27.7462186111947</v>
       </c>
       <c r="I29" t="n">
         <v>4</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_S_gamma0.97_sharpness0.34_contrast1.0.jpg</t>
+          <t>28_E_sharpness0.25_contrast1.1_equalization28.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1662,16 +1662,16 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.9508797216347027</v>
+        <v>0.937175035214225</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.5699117536405022</v>
+        <v>0.5377914995099584</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1687,14 +1687,14 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>25.51253261989419</v>
+        <v>27.73262932528673</v>
       </c>
       <c r="I30" t="n">
         <v>4</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_S_gamma0.95_sharpness0.57_equalization26.0.jpg</t>
+          <t>29_2_contrast0.94_sharpness0.54_equalization28.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1713,30 +1713,30 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>21.01271214476341</v>
+        <v>28.8658858037001</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.9458494404924199</v>
+        <v>0.9280167580021308</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>1.035777121177048</v>
+        <v>0.7419401639393444</v>
       </c>
       <c r="I31" t="n">
         <v>4</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_7_brightness21.0_sharpness0.95_contrast1.0.jpg</t>
+          <t>30_B_brightness29.0_contrast0.93_gamma0.74.jpg</t>
         </is>
       </c>
     </row>
@@ -1746,16 +1746,16 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>2.283040125127709</v>
+        <v>0.9694183907852443</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1763,22 +1763,22 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.6737421303575346</v>
+        <v>0.9308146748583837</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>1.124691536515042</v>
+        <v>22.57282012875712</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_9_brightness2.3_sharpness0.67_contrast1.1.jpg</t>
+          <t>31_7_contrast0.97_sharpness0.93_equalization23.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1788,39 +1788,39 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.8220375329666376</v>
+        <v>19.75672229418488</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.1511923288492577</v>
+        <v>1.102267516735687</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>20.28255173321159</v>
+        <v>0.7116231159708277</v>
       </c>
       <c r="I33" t="n">
         <v>4</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_P_contrast0.82_sharpness0.15_equalization20.0.jpg</t>
+          <t>32_9_brightness20.0_contrast1.1_gamma0.71.jpg</t>
         </is>
       </c>
     </row>
@@ -1830,24 +1830,24 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.240026514316122</v>
+        <v>1.186658605807084</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.9967604057737449</v>
+        <v>0.02589245790188244</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1855,14 +1855,14 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>23.18751979482149</v>
+        <v>11.23692744886948</v>
       </c>
       <c r="I34" t="n">
         <v>4</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_8_sharpness0.24_gamma1.0_equalization23.0.jpg</t>
+          <t>33_I_contrast1.2_sharpness0.026_equalization11.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1872,39 +1872,39 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.8999594663640873</v>
+        <v>12.46832403032158</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>29.20474221567694</v>
+        <v>0.7086246365999888</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>0.9505315939092071</v>
+        <v>1.076779934824403</v>
       </c>
       <c r="I35" t="n">
         <v>4</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_C_contrast0.9_brightness29.0_sharpness0.95.jpg</t>
+          <t>34_1_brightness12.0_sharpness0.71_gamma1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -1914,39 +1914,39 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.8684465015228534</v>
+        <v>0.686102851626887</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.9519028536401412</v>
+        <v>29.56792473694135</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>31.06015836515627</v>
+        <v>0.6141373159084269</v>
       </c>
       <c r="I36" t="n">
         <v>4</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_1_contrast0.87_gamma0.95_equalization31.0.jpg</t>
+          <t>35_T_sharpness0.69_brightness30.0_gamma0.61.jpg</t>
         </is>
       </c>
     </row>
@@ -1956,24 +1956,24 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.9032400348911231</v>
+        <v>1.008387741017354</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.113265079273075</v>
+        <v>0.8098832976228749</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1981,14 +1981,14 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>7.322615194762074</v>
+        <v>23.13316500140598</v>
       </c>
       <c r="I37" t="n">
         <v>4</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_C_sharpness0.9_contrast1.1_equalization7.3.jpg</t>
+          <t>36_S_gamma1.0_sharpness0.81_equalization23.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1998,16 +1998,16 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1.086181751996232</v>
+        <v>1.017893590927365</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2015,22 +2015,22 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.7592244569254375</v>
+        <v>0.5452116373469278</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>20.51724899249226</v>
+        <v>1.078523439871608</v>
       </c>
       <c r="I38" t="n">
         <v>4</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_0_contrast1.1_sharpness0.76_brightness21.0.jpg</t>
+          <t>37_C_brightness1.0_sharpness0.55_gamma1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -2040,39 +2040,39 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.3197711953466047</v>
+        <v>0.9969825960056544</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.5254629854913432</v>
+        <v>0.8137867036578729</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>25.76155966920104</v>
+        <v>21.98620635208252</v>
       </c>
       <c r="I39" t="n">
         <v>4</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_E_sharpness0.32_gamma0.53_equalization26.0.jpg</t>
+          <t>38_0_gamma1.0_sharpness0.81_brightness22.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2082,16 +2082,16 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>21.47266144124673</v>
+        <v>0.3227488635595608</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2099,22 +2099,22 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.153367142228875</v>
+        <v>1.179935963897095</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0.3973850778846136</v>
+        <v>26.37298620508281</v>
       </c>
       <c r="I40" t="n">
         <v>4</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_T_brightness21.0_contrast1.2_sharpness0.4.jpg</t>
+          <t>39_0_sharpness0.32_contrast1.2_equalization26.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2124,7 +2124,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.06218445238556047</v>
+        <v>0.3108739886661002</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2141,22 +2141,22 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.7630205513882915</v>
+        <v>0.8894147784903348</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>2.504585194219716</v>
+        <v>17.54433633998355</v>
       </c>
       <c r="I41" t="n">
         <v>4</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_9_sharpness0.062_gamma0.76_brightness2.5.jpg</t>
+          <t>40_0_sharpness0.31_gamma0.89_equalization18.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2166,24 +2166,24 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.2637901118299945</v>
+        <v>0.611137815098494</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.5547700668698881</v>
+        <v>1.089105779157874</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2191,14 +2191,14 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>27.62136011074685</v>
+        <v>17.28676243359107</v>
       </c>
       <c r="I42" t="n">
         <v>4</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_9_sharpness0.26_gamma0.55_equalization28.0.jpg</t>
+          <t>41_B_gamma0.61_contrast1.1_equalization17.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2208,39 +2208,39 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.9263532060993243</v>
+        <v>0.5948869477714789</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.806767926296927</v>
+        <v>0.9912954192830704</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>21.28707146050109</v>
+        <v>18.8426709160964</v>
       </c>
       <c r="I43" t="n">
         <v>4</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_3_sharpness0.93_gamma0.81_brightness21.0.jpg</t>
+          <t>42_8_gamma0.59_sharpness0.99_equalization19.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2250,16 +2250,16 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.8393738950132594</v>
+        <v>18.86904758911846</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2267,22 +2267,22 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.02201340471316848</v>
+        <v>0.6738996154276693</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>13.91213426123693</v>
+        <v>0.7731417178486101</v>
       </c>
       <c r="I44" t="n">
         <v>4</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_7_contrast0.84_sharpness0.022_brightness14.0.jpg</t>
+          <t>43_I_brightness19.0_sharpness0.67_gamma0.77.jpg</t>
         </is>
       </c>
     </row>
@@ -2292,39 +2292,39 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.1121720037737246</v>
+        <v>27.81470399021921</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.14135374349363</v>
+        <v>0.04387797542137462</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>20.90453961814024</v>
+        <v>1.059382404312528</v>
       </c>
       <c r="I45" t="n">
         <v>4</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_E_sharpness0.11_contrast1.1_equalization21.0.jpg</t>
+          <t>44_S_brightness28.0_sharpness0.044_gamma1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -2334,7 +2334,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2343,30 +2343,30 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.8604350881000491</v>
+        <v>1.046219545337149</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.003326688727948</v>
+        <v>11.59809650751592</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>20.91155469493283</v>
+        <v>0.3345850199832248</v>
       </c>
       <c r="I46" t="n">
         <v>4</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_T_gamma0.86_contrast1.0_equalization21.0.jpg</t>
+          <t>45_0_gamma1.0_brightness12.0_sharpness0.33.jpg</t>
         </is>
       </c>
     </row>
@@ -2376,39 +2376,39 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>28.74466148891166</v>
+        <v>0.04348624424960723</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.9146214502049586</v>
+        <v>0.8314451280597442</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>1.07074489511366</v>
+        <v>18.89324748388788</v>
       </c>
       <c r="I47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_0_brightness29.0_gamma0.91_contrast1.1.jpg</t>
+          <t>46_7_sharpness0.043_contrast0.83_equalization19.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2427,30 +2427,30 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1.125250995101648</v>
+        <v>1.091509423511889</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>7.521213304655543</v>
+        <v>0.4339978283568776</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>0.8258669144501208</v>
+        <v>4.036973155694652</v>
       </c>
       <c r="I48" t="n">
         <v>4</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_0_contrast1.1_brightness7.5_sharpness0.83.jpg</t>
+          <t>47_9_contrast1.1_sharpness0.43_equalization4.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2460,39 +2460,39 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>0.407665661747285</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="D49" t="n">
-        <v>26.46490950160785</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
       <c r="F49" t="n">
-        <v>0.5453258097581555</v>
+        <v>22.98746846669448</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>0.1270033583592501</v>
+        <v>0.9561813225459146</v>
       </c>
       <c r="I49" t="n">
         <v>4</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_S_brightness26.0_gamma0.55_sharpness0.13.jpg</t>
+          <t>48_B_sharpness0.41_brightness23.0_contrast0.96.jpg</t>
         </is>
       </c>
     </row>
